--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ROYCCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ROYCCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>ROYCCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12148.825067201471</v>
       </c>
       <c r="C2" t="n">
-        <v>947.2188119018173</v>
+        <v>11162.47968294371</v>
       </c>
       <c r="D2" t="n">
-        <v>893.7620491567571</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000.6755746468773</v>
+        <v>13135.170451459233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12371.539033438496</v>
       </c>
       <c r="C3" t="n">
-        <v>990.2360426648288</v>
+        <v>10836.8423042546</v>
       </c>
       <c r="D3" t="n">
-        <v>919.9074953996972</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1060.5645899299604</v>
+        <v>13906.235762622391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12207.119551428521</v>
       </c>
       <c r="C4" t="n">
-        <v>984.6956306034537</v>
+        <v>10209.81839092091</v>
       </c>
       <c r="D4" t="n">
-        <v>904.4214224533223</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1064.969838753585</v>
+        <v>14204.420711936133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12344.166545280877</v>
       </c>
       <c r="C5" t="n">
-        <v>980.3138456051447</v>
+        <v>9942.507851783523</v>
       </c>
       <c r="D5" t="n">
-        <v>893.6063335139488</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1067.0213576963406</v>
+        <v>14745.825238778232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12498.159578676099</v>
       </c>
       <c r="C6" t="n">
-        <v>924.0678817635181</v>
+        <v>9736.340440189602</v>
       </c>
       <c r="D6" t="n">
-        <v>833.0259477821787</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1015.1098157448575</v>
+        <v>15259.978717162596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12746.624401855845</v>
       </c>
       <c r="C7" t="n">
-        <v>973.7909497973808</v>
+        <v>9659.252905092624</v>
       </c>
       <c r="D7" t="n">
-        <v>879.7633517156439</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1067.8185478791177</v>
+        <v>15833.995898619065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12596.137658722213</v>
       </c>
       <c r="C8" t="n">
-        <v>973.929529362441</v>
+        <v>9210.816756079053</v>
       </c>
       <c r="D8" t="n">
-        <v>877.8177274487406</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1070.0413312761414</v>
+        <v>15981.458561365373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12740.723089568266</v>
       </c>
       <c r="C9" t="n">
-        <v>974.3571282770569</v>
+        <v>9079.827877551192</v>
       </c>
       <c r="D9" t="n">
-        <v>876.7779572796107</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1071.936299274503</v>
+        <v>16401.61830158534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12898.794863892483</v>
       </c>
       <c r="C10" t="n">
-        <v>922.1841011719861</v>
+        <v>8980.749149445448</v>
       </c>
       <c r="D10" t="n">
-        <v>823.5659860638723</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1020.8022162800999</v>
+        <v>16816.840578339517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13149.466527506094</v>
       </c>
       <c r="C11" t="n">
-        <v>975.356428811721</v>
+        <v>8989.671237597</v>
       </c>
       <c r="D11" t="n">
-        <v>875.9998791657906</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1074.7129784576514</v>
+        <v>17309.26181741519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13000.17381576238</v>
       </c>
       <c r="C12" t="n">
-        <v>978.4160927437249</v>
+        <v>8611.68708942339</v>
       </c>
       <c r="D12" t="n">
-        <v>878.5333041800893</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1078.2988813073605</v>
+        <v>17388.66054210137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13145.405288315038</v>
       </c>
       <c r="C13" t="n">
-        <v>981.3174787471048</v>
+        <v>8539.444623896234</v>
       </c>
       <c r="D13" t="n">
-        <v>881.0589758258142</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1081.5759816683956</v>
+        <v>17751.36595273384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13303.82660946876</v>
       </c>
       <c r="C14" t="n">
-        <v>931.2394348030097</v>
+        <v>8490.143202479388</v>
       </c>
       <c r="D14" t="n">
-        <v>830.7123366116832</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1031.766532994336</v>
+        <v>18117.51001645813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13554.687398621432</v>
       </c>
       <c r="C15" t="n">
-        <v>986.1859468358581</v>
+        <v>8541.84830328651</v>
       </c>
       <c r="D15" t="n">
-        <v>885.4666548935894</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1086.9052387781269</v>
+        <v>18567.526493956357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13405.497014996603</v>
       </c>
       <c r="C16" t="n">
-        <v>990.7481193891257</v>
+        <v>8201.10039942326</v>
       </c>
       <c r="D16" t="n">
-        <v>889.8912128357629</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1091.6050259424885</v>
+        <v>18609.893630569946</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13550.783853122657</v>
       </c>
       <c r="C17" t="n">
-        <v>994.9219391743234</v>
+        <v>8161.62528017394</v>
       </c>
       <c r="D17" t="n">
-        <v>893.9664518069899</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1095.8774265416569</v>
+        <v>18939.94242607137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13709.23513033099</v>
       </c>
       <c r="C18" t="n">
-        <v>945.9214848734402</v>
+        <v>8141.437634450973</v>
       </c>
       <c r="D18" t="n">
-        <v>844.8953552070166</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1046.947614539864</v>
+        <v>19277.032626211003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13960.11212748356</v>
       </c>
       <c r="C19" t="n">
-        <v>1001.780578335477</v>
+        <v>8219.229235893692</v>
       </c>
       <c r="D19" t="n">
-        <v>900.703814862806</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1102.857341808148</v>
+        <v>19700.99501907343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13810.930513346702</v>
       </c>
       <c r="C20" t="n">
-        <v>1007.115591338859</v>
+        <v>7902.028816479205</v>
       </c>
       <c r="D20" t="n">
-        <v>906.0025292353141</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1108.2286534424038</v>
+        <v>19719.8322102142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13956.222096285186</v>
       </c>
       <c r="C21" t="n">
-        <v>1011.9439087307686</v>
+        <v>7883.948179462633</v>
       </c>
       <c r="D21" t="n">
-        <v>910.804821501717</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1113.0829959598202</v>
+        <v>20028.49601310774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14114.675940718085</v>
       </c>
       <c r="C22" t="n">
-        <v>963.4977306936707</v>
+        <v>7883.311218047444</v>
       </c>
       <c r="D22" t="n">
-        <v>862.3399825328379</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1064.6554788545036</v>
+        <v>20346.040663388725</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14365.554326891208</v>
       </c>
       <c r="C23" t="n">
-        <v>1019.8262256836047</v>
+        <v>7979.060410580978</v>
       </c>
       <c r="D23" t="n">
-        <v>918.6550961404945</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1120.997355226715</v>
+        <v>20752.04824320144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14216.373464296743</v>
       </c>
       <c r="C24" t="n">
-        <v>1025.5587621040777</v>
+        <v>7678.43004875372</v>
       </c>
       <c r="D24" t="n">
-        <v>924.3780366083188</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1126.7394875998364</v>
+        <v>20754.316879839767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14361.665453864172</v>
       </c>
       <c r="C25" t="n">
-        <v>1030.723731291399</v>
+        <v>7675.7022185574415</v>
       </c>
       <c r="D25" t="n">
-        <v>929.5361241996983</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1131.9113383830997</v>
+        <v>21047.628689170902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14520.119518307421</v>
       </c>
       <c r="C26" t="n">
-        <v>982.5626545250221</v>
+        <v>7689.343204374853</v>
       </c>
       <c r="D26" t="n">
-        <v>881.37011228458</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1083.7551967654642</v>
+        <v>21350.89583223999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14770.998023519172</v>
       </c>
       <c r="C27" t="n">
-        <v>1039.1325940451043</v>
+        <v>7798.415580258684</v>
       </c>
       <c r="D27" t="n">
-        <v>937.9365124955248</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1140.3286755946838</v>
+        <v>21743.580466779662</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14621.817225331659</v>
       </c>
       <c r="C28" t="n">
-        <v>1045.0696032867297</v>
+        <v>7510.255728813853</v>
       </c>
       <c r="D28" t="n">
-        <v>943.8709834433326</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1146.268223130127</v>
+        <v>21733.378721849465</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14767.109249747064</v>
       </c>
       <c r="C29" t="n">
-        <v>1050.4077349580568</v>
+        <v>7519.233149059814</v>
       </c>
       <c r="D29" t="n">
-        <v>949.2072947056539</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1151.6081752104596</v>
+        <v>22014.985350434312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14925.563333045131</v>
       </c>
       <c r="C30" t="n">
-        <v>1002.3933048007402</v>
+        <v>7543.889467563781</v>
       </c>
       <c r="D30" t="n">
-        <v>901.1915589827207</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1103.5950506187598</v>
+        <v>22307.237198526476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15176.441848458455</v>
       </c>
       <c r="C31" t="n">
-        <v>1059.0874353548813</v>
+        <v>7663.352593049464</v>
       </c>
       <c r="D31" t="n">
-        <v>957.8847532038624</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1160.2901175059003</v>
+        <v>22689.531103867448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15027.261055790594</v>
       </c>
       <c r="C32" t="n">
-        <v>1065.1296186134139</v>
+        <v>7385.015883533306</v>
       </c>
       <c r="D32" t="n">
-        <v>963.9262649356473</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1166.3329722911806</v>
+        <v>22669.50622804788</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15172.55308319246</v>
       </c>
       <c r="C33" t="n">
-        <v>1070.5568193058355</v>
+        <v>7403.298782340578</v>
       </c>
       <c r="D33" t="n">
-        <v>969.352984016093</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1171.760654595578</v>
+        <v>22941.80738404434</v>
       </c>
     </row>
   </sheetData>
